--- a/stockfish_last/customers_data_sample.xlsx
+++ b/stockfish_last/customers_data_sample.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozom\Desktop\stockfish_last_git\stockfish_last\stockfish_last\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin\OneDrive\Masaüstü\Stockfish_Last\stockfish_v1.0.9\stockfish_last\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365EB52D-A196-4B0B-A832-B65B7C510436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$G$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>Customer Code</t>
   </si>
@@ -115,16 +114,16 @@
     <t>12717</t>
   </si>
   <si>
-    <t>Description1</t>
-  </si>
-  <si>
     <t>13058</t>
+  </si>
+  <si>
+    <t>aaDescription</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,30 +476,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -518,7 +517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -541,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -564,7 +563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -587,7 +586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -610,7 +609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -633,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -656,7 +655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -679,7 +678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -702,7 +701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -725,7 +724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -748,9 +747,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -771,8 +770,31 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13059</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stockfish_last/customers_data_sample.xlsx
+++ b/stockfish_last/customers_data_sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin\OneDrive\Masaüstü\Stockfish_Last\stockfish_v1.0.9\stockfish_last\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozom\Desktop\stockfish_last_git\stockfish_last\stockfish_last\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7F8E81-5AA7-4E4F-A155-8599EA4E710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12435"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -22,22 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>Customer Code</t>
   </si>
@@ -117,14 +108,29 @@
     <t>13058</t>
   </si>
   <si>
-    <t>aaDescription</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>76675</t>
+  </si>
+  <si>
+    <t>SOKHANVAR paintig-Masud Sokhanvar-j</t>
+  </si>
+  <si>
+    <t>ankara</t>
+  </si>
+  <si>
+    <t>turkey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;#,##\-0;\-;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +146,19 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA2120F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,17 +176,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -476,25 +525,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.41796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -540,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -563,7 +612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -586,7 +635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -609,7 +658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -632,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -655,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -678,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -701,7 +750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -724,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -747,7 +796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -770,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>13059</v>
       </c>
@@ -793,9 +842,37 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G5"/>
+  <autoFilter ref="A1:G5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C14:D14">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(C14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stockfish_last/customers_data_sample.xlsx
+++ b/stockfish_last/customers_data_sample.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozom\Desktop\stockfish_last_git\stockfish_last\stockfish_last\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin\OneDrive\Masaüstü\Stockfish_Last\stockfish_v1.0.9\stockfish_last\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7F8E81-5AA7-4E4F-A155-8599EA4E710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Customer Code</t>
   </si>
@@ -126,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;#,##\-0;\-;@"/>
   </numFmts>
@@ -205,7 +204,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -525,25 +534,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -589,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -612,7 +621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -635,7 +644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -658,7 +667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -681,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -704,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -727,7 +736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -750,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -773,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -796,7 +805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -819,7 +828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13059</v>
       </c>
@@ -842,7 +851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -865,12 +874,40 @@
         <v>30</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>76676</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C14:D14">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(C14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:D15">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(C14))=0</formula>
+      <formula>LEN(TRIM(C15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
